--- a/data/pca/factorExposure/factorExposure_2009-12-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0043514883038139</v>
+        <v>0.01679836566720097</v>
       </c>
       <c r="C2">
-        <v>0.01099438843176632</v>
+        <v>-0.001053473923829886</v>
       </c>
       <c r="D2">
-        <v>0.002475245702039297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007457762726487699</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002745653455278443</v>
+      </c>
+      <c r="F2">
+        <v>0.01136727930572141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03424944819566905</v>
+        <v>0.09377085135733422</v>
       </c>
       <c r="C4">
-        <v>0.1149688685963034</v>
+        <v>-0.01524916970127442</v>
       </c>
       <c r="D4">
-        <v>-0.02997140536679989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08342933180145831</v>
+      </c>
+      <c r="E4">
+        <v>-0.02795792090718012</v>
+      </c>
+      <c r="F4">
+        <v>-0.03101707787632817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04743786386806788</v>
+        <v>0.1577628261240841</v>
       </c>
       <c r="C6">
-        <v>0.1222620109830543</v>
+        <v>-0.02540220369289891</v>
       </c>
       <c r="D6">
-        <v>0.04850498435947517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02117633478663265</v>
+      </c>
+      <c r="E6">
+        <v>-0.01152372098334415</v>
+      </c>
+      <c r="F6">
+        <v>-0.04628262295120261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01283667477114782</v>
+        <v>0.06255441259452876</v>
       </c>
       <c r="C7">
-        <v>0.08037281174087005</v>
+        <v>0.001757760189091388</v>
       </c>
       <c r="D7">
-        <v>-0.01116914452712029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05337814075802799</v>
+      </c>
+      <c r="E7">
+        <v>-0.009942113586241539</v>
+      </c>
+      <c r="F7">
+        <v>-0.04748705092091673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001084291034632266</v>
+        <v>0.05717899110944207</v>
       </c>
       <c r="C8">
-        <v>0.06958598166313644</v>
+        <v>0.01380189714764288</v>
       </c>
       <c r="D8">
-        <v>0.01520866898607518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03368879276797999</v>
+      </c>
+      <c r="E8">
+        <v>-0.01745881945472368</v>
+      </c>
+      <c r="F8">
+        <v>0.02789964637088215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02955159241608938</v>
+        <v>0.07118714560514133</v>
       </c>
       <c r="C9">
-        <v>0.09785668612605827</v>
+        <v>-0.01077143776163771</v>
       </c>
       <c r="D9">
-        <v>-0.0316569736610104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08606342940246869</v>
+      </c>
+      <c r="E9">
+        <v>-0.02279278439938825</v>
+      </c>
+      <c r="F9">
+        <v>-0.04744199907498164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01488811155779917</v>
+        <v>0.09565718559160181</v>
       </c>
       <c r="C10">
-        <v>0.02944116591171671</v>
+        <v>-0.02084400567422765</v>
       </c>
       <c r="D10">
-        <v>0.12325073581011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.170618412508128</v>
+      </c>
+      <c r="E10">
+        <v>0.03574358802469255</v>
+      </c>
+      <c r="F10">
+        <v>0.05386885853456377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03287478804841074</v>
+        <v>0.08753653716665502</v>
       </c>
       <c r="C11">
-        <v>0.09932735221292119</v>
+        <v>-0.0102928044416548</v>
       </c>
       <c r="D11">
-        <v>-0.049603337988053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1167808553655883</v>
+      </c>
+      <c r="E11">
+        <v>-0.04613029434393181</v>
+      </c>
+      <c r="F11">
+        <v>-0.02179716409259835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0305782557329357</v>
+        <v>0.09223603538765722</v>
       </c>
       <c r="C12">
-        <v>0.1100561420069846</v>
+        <v>-0.007550254840567959</v>
       </c>
       <c r="D12">
-        <v>-0.04620553550387588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1313447852462426</v>
+      </c>
+      <c r="E12">
+        <v>-0.04741781699266669</v>
+      </c>
+      <c r="F12">
+        <v>-0.0260142197571738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01098231432738736</v>
+        <v>0.04166809410054435</v>
       </c>
       <c r="C13">
-        <v>0.03873638746043535</v>
+        <v>-0.003002299355624422</v>
       </c>
       <c r="D13">
-        <v>-0.02561852874931454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05176901585661246</v>
+      </c>
+      <c r="E13">
+        <v>0.008760407031445127</v>
+      </c>
+      <c r="F13">
+        <v>-0.003286040093435696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01789871726041761</v>
+        <v>0.02261560346295073</v>
       </c>
       <c r="C14">
-        <v>0.0256699988956765</v>
+        <v>-0.0137261116397652</v>
       </c>
       <c r="D14">
-        <v>0.0001678295756554199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03294501712683859</v>
+      </c>
+      <c r="E14">
+        <v>-0.01713799307648204</v>
+      </c>
+      <c r="F14">
+        <v>-0.01362498814634566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01231926812265267</v>
+        <v>0.03286676765114933</v>
       </c>
       <c r="C15">
-        <v>0.03006633217458107</v>
+        <v>-0.004669339375070504</v>
       </c>
       <c r="D15">
-        <v>-0.008693023036860382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04510753091488621</v>
+      </c>
+      <c r="E15">
+        <v>-0.005907660802122293</v>
+      </c>
+      <c r="F15">
+        <v>-0.02283805565707643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.02241930168086446</v>
+        <v>0.07423659758184284</v>
       </c>
       <c r="C16">
-        <v>0.1011291037411857</v>
+        <v>-0.001425706985634419</v>
       </c>
       <c r="D16">
-        <v>-0.03784976771753738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1253026852273385</v>
+      </c>
+      <c r="E16">
+        <v>-0.06141174999603995</v>
+      </c>
+      <c r="F16">
+        <v>-0.02406876526322804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03214975853192927</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003459471179172859</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01950769392975082</v>
+      </c>
+      <c r="E18">
+        <v>0.007463050846432613</v>
+      </c>
+      <c r="F18">
+        <v>0.003994104076903764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01513384720278055</v>
+        <v>0.06105502867508879</v>
       </c>
       <c r="C20">
-        <v>0.06103733800359887</v>
+        <v>-0.0001405216150955231</v>
       </c>
       <c r="D20">
-        <v>-0.004861893041738145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07691340268407247</v>
+      </c>
+      <c r="E20">
+        <v>-0.05519116578290843</v>
+      </c>
+      <c r="F20">
+        <v>-0.02281689779979048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01473586138515061</v>
+        <v>0.04053505403210753</v>
       </c>
       <c r="C21">
-        <v>0.02294848686810058</v>
+        <v>-0.006295196480964935</v>
       </c>
       <c r="D21">
-        <v>-0.001741458535709227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03748997358658689</v>
+      </c>
+      <c r="E21">
+        <v>0.005581030520119462</v>
+      </c>
+      <c r="F21">
+        <v>0.02403982061230182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.006155433789905666</v>
+        <v>0.04379487839590678</v>
       </c>
       <c r="C22">
-        <v>0.02943576423800379</v>
+        <v>-0.000732416243428753</v>
       </c>
       <c r="D22">
-        <v>0.0332831334661596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003898930555711149</v>
+      </c>
+      <c r="E22">
+        <v>-0.02983027982864874</v>
+      </c>
+      <c r="F22">
+        <v>0.03631791139424352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.006142876100271359</v>
+        <v>0.04378048412499513</v>
       </c>
       <c r="C23">
-        <v>0.0293786663978104</v>
+        <v>-0.0007281014343142339</v>
       </c>
       <c r="D23">
-        <v>0.03335288029528938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003903464748795214</v>
+      </c>
+      <c r="E23">
+        <v>-0.03003158750033218</v>
+      </c>
+      <c r="F23">
+        <v>0.0362813749476275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02276167287915434</v>
+        <v>0.08008875039326475</v>
       </c>
       <c r="C24">
-        <v>0.1071468704730698</v>
+        <v>-0.001883763357343644</v>
       </c>
       <c r="D24">
-        <v>-0.04282570823128816</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.120765399076358</v>
+      </c>
+      <c r="E24">
+        <v>-0.04882662565889948</v>
+      </c>
+      <c r="F24">
+        <v>-0.02614635986873223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02707174268386492</v>
+        <v>0.08486657195300114</v>
       </c>
       <c r="C25">
-        <v>0.1033615362709859</v>
+        <v>-0.004191803944586362</v>
       </c>
       <c r="D25">
-        <v>-0.04727300093536268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.109354609020958</v>
+      </c>
+      <c r="E25">
+        <v>-0.03245618318593012</v>
+      </c>
+      <c r="F25">
+        <v>-0.02668741154530802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0260597692700065</v>
+        <v>0.05820514102530615</v>
       </c>
       <c r="C26">
-        <v>0.04847427827434904</v>
+        <v>-0.01441405835061896</v>
       </c>
       <c r="D26">
-        <v>0.00644611377343751</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03998573062368141</v>
+      </c>
+      <c r="E26">
+        <v>-0.02820300075576324</v>
+      </c>
+      <c r="F26">
+        <v>0.008930515162976486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0150844829861371</v>
+        <v>0.1406840597267625</v>
       </c>
       <c r="C28">
-        <v>0.05239296153786227</v>
+        <v>-0.02026195818796135</v>
       </c>
       <c r="D28">
-        <v>0.213549264616207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615952200035083</v>
+      </c>
+      <c r="E28">
+        <v>0.0674903133694303</v>
+      </c>
+      <c r="F28">
+        <v>-0.01022325868666361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01434187151510473</v>
+        <v>0.02786371930938146</v>
       </c>
       <c r="C29">
-        <v>0.02802237924060234</v>
+        <v>-0.008154026792247563</v>
       </c>
       <c r="D29">
-        <v>0.003840937920224281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03176529676852219</v>
+      </c>
+      <c r="E29">
+        <v>-0.01113812974740717</v>
+      </c>
+      <c r="F29">
+        <v>0.01141949665889011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.02161358561713536</v>
+        <v>0.06119372127937477</v>
       </c>
       <c r="C30">
-        <v>0.1280417770042056</v>
+        <v>-0.003113509524260769</v>
       </c>
       <c r="D30">
-        <v>-0.02973945093347904</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08894153530262208</v>
+      </c>
+      <c r="E30">
+        <v>-0.01907389033188535</v>
+      </c>
+      <c r="F30">
+        <v>-0.08316468422139756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02240257827785016</v>
+        <v>0.0498534033161352</v>
       </c>
       <c r="C31">
-        <v>0.03483578216261516</v>
+        <v>-0.01512072237723052</v>
       </c>
       <c r="D31">
-        <v>-0.004643479419763458</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02492249311197241</v>
+      </c>
+      <c r="E31">
+        <v>-0.02747877277797868</v>
+      </c>
+      <c r="F31">
+        <v>0.002405234284098637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.00891568945831195</v>
+        <v>0.05007689102249603</v>
       </c>
       <c r="C32">
-        <v>0.05773717798935558</v>
+        <v>0.001696156687097074</v>
       </c>
       <c r="D32">
-        <v>0.009791150339493971</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03687896110921218</v>
+      </c>
+      <c r="E32">
+        <v>-0.03164797358047895</v>
+      </c>
+      <c r="F32">
+        <v>-0.003204902453555641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02731043697927648</v>
+        <v>0.0893697026262515</v>
       </c>
       <c r="C33">
-        <v>0.1065968989101591</v>
+        <v>-0.007489942706491036</v>
       </c>
       <c r="D33">
-        <v>-0.03333528414566835</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09923609641012035</v>
+      </c>
+      <c r="E33">
+        <v>-0.04360086511674091</v>
+      </c>
+      <c r="F33">
+        <v>-0.03507983518885161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02993278415037688</v>
+        <v>0.06765581570892926</v>
       </c>
       <c r="C34">
-        <v>0.09150113279572866</v>
+        <v>-0.01031127577290889</v>
       </c>
       <c r="D34">
-        <v>-0.04516020590022154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1076431835416757</v>
+      </c>
+      <c r="E34">
+        <v>-0.0343013842158439</v>
+      </c>
+      <c r="F34">
+        <v>-0.03361069217471025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.005236837670892142</v>
+        <v>0.02441756967726029</v>
       </c>
       <c r="C35">
-        <v>0.01667438063100618</v>
+        <v>-0.002388362211617665</v>
       </c>
       <c r="D35">
-        <v>0.0007118804283266249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01131067960609649</v>
+      </c>
+      <c r="E35">
+        <v>-0.01142877782033711</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008335937979480771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01230174406311768</v>
+        <v>0.02791988636472734</v>
       </c>
       <c r="C36">
-        <v>0.0258174100818294</v>
+        <v>-0.007072099059994025</v>
       </c>
       <c r="D36">
-        <v>-0.01225737587173127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03925531348199991</v>
+      </c>
+      <c r="E36">
+        <v>-0.01630777787769019</v>
+      </c>
+      <c r="F36">
+        <v>-0.01513521343819075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003787258575320406</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0001004916931526399</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.000412704292584575</v>
+      </c>
+      <c r="E37">
+        <v>0.0004597554600388014</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006123548999912359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0007163327015141547</v>
+        <v>0.001543960183507656</v>
       </c>
       <c r="C38">
-        <v>0.004029833411578496</v>
+        <v>-0.0002642519137003585</v>
       </c>
       <c r="D38">
-        <v>0.002813348241762864</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0004405380504877469</v>
+      </c>
+      <c r="E38">
+        <v>-0.0002829122847909635</v>
+      </c>
+      <c r="F38">
+        <v>0.0008227883901846916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04487255009156629</v>
+        <v>0.1050206390649105</v>
       </c>
       <c r="C39">
-        <v>0.1542524957130939</v>
+        <v>-0.0154978789942966</v>
       </c>
       <c r="D39">
-        <v>-0.07543747470243242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1541685615915439</v>
+      </c>
+      <c r="E39">
+        <v>-0.05901556163856845</v>
+      </c>
+      <c r="F39">
+        <v>-0.02902563324298818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01210194833987768</v>
+        <v>0.04153816502020668</v>
       </c>
       <c r="C40">
-        <v>0.01135839445333263</v>
+        <v>-0.006744261310140393</v>
       </c>
       <c r="D40">
-        <v>0.006287840741768698</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03180479869985944</v>
+      </c>
+      <c r="E40">
+        <v>-0.002604095617808267</v>
+      </c>
+      <c r="F40">
+        <v>0.01617439848700931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0120086456829115</v>
+        <v>0.02794840673970783</v>
       </c>
       <c r="C41">
-        <v>0.01779190294131792</v>
+        <v>-0.006757980193356937</v>
       </c>
       <c r="D41">
-        <v>0.01096012405167501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01033123951006464</v>
+      </c>
+      <c r="E41">
+        <v>-0.01252300463175856</v>
+      </c>
+      <c r="F41">
+        <v>0.006510517205976959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01433592000982247</v>
+        <v>0.04076435960694057</v>
       </c>
       <c r="C43">
-        <v>0.0277324078496523</v>
+        <v>-0.006758473542864397</v>
       </c>
       <c r="D43">
-        <v>0.005960892881834418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0195194769834898</v>
+      </c>
+      <c r="E43">
+        <v>-0.02463071535550629</v>
+      </c>
+      <c r="F43">
+        <v>0.01283079741190308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.04245619836836873</v>
+        <v>0.0797918352889749</v>
       </c>
       <c r="C44">
-        <v>0.1292036396225215</v>
+        <v>-0.01971656905774299</v>
       </c>
       <c r="D44">
-        <v>-0.02139757520658032</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09759371380438371</v>
+      </c>
+      <c r="E44">
+        <v>-0.06477144758241367</v>
+      </c>
+      <c r="F44">
+        <v>-0.1561834453268074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005494536526354413</v>
+        <v>0.02351875883443135</v>
       </c>
       <c r="C46">
-        <v>0.005384452362862747</v>
+        <v>-0.003437698486503949</v>
       </c>
       <c r="D46">
-        <v>0.01813010445720832</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01259590329577042</v>
+      </c>
+      <c r="E46">
+        <v>-0.02167312421490943</v>
+      </c>
+      <c r="F46">
+        <v>0.005977912704055293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01155578167016808</v>
+        <v>0.05136719295717371</v>
       </c>
       <c r="C47">
-        <v>0.031758588548436</v>
+        <v>-0.003301125689509892</v>
       </c>
       <c r="D47">
-        <v>0.0236635686614825</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01381005794554983</v>
+      </c>
+      <c r="E47">
+        <v>-0.02339040665412094</v>
+      </c>
+      <c r="F47">
+        <v>0.03351185604973265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01314736271558162</v>
+        <v>0.04995497299247554</v>
       </c>
       <c r="C48">
-        <v>0.0467219142036843</v>
+        <v>-0.002417121378406122</v>
       </c>
       <c r="D48">
-        <v>-0.02735690756810869</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04961294953117418</v>
+      </c>
+      <c r="E48">
+        <v>0.00647706238256812</v>
+      </c>
+      <c r="F48">
+        <v>-0.009792909560668578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.04978619960794816</v>
+        <v>0.2001231808845339</v>
       </c>
       <c r="C49">
-        <v>0.220590193374024</v>
+        <v>-0.01867265435542151</v>
       </c>
       <c r="D49">
-        <v>0.056416908964973</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007589896585163282</v>
+      </c>
+      <c r="E49">
+        <v>-0.0308374883590002</v>
+      </c>
+      <c r="F49">
+        <v>-0.03918033121983391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01962378759503083</v>
+        <v>0.05069070691920956</v>
       </c>
       <c r="C50">
-        <v>0.03898909545375123</v>
+        <v>-0.01118208034756382</v>
       </c>
       <c r="D50">
-        <v>0.002735666433840834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0236192481083031</v>
+      </c>
+      <c r="E50">
+        <v>-0.02952488451574388</v>
+      </c>
+      <c r="F50">
+        <v>-0.00927171958567452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0002901673724635285</v>
+        <v>0.000507477116387415</v>
       </c>
       <c r="C51">
-        <v>0.001220478798836218</v>
+        <v>-0.00013836589869717</v>
       </c>
       <c r="D51">
-        <v>0.001233466581760951</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0003258153379708994</v>
+      </c>
+      <c r="E51">
+        <v>0.0001021579524096755</v>
+      </c>
+      <c r="F51">
+        <v>-0.001907357730943594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03828146574788092</v>
+        <v>0.1461735443713143</v>
       </c>
       <c r="C52">
-        <v>0.1514983449165837</v>
+        <v>-0.01548082511598943</v>
       </c>
       <c r="D52">
-        <v>-0.01952094893746747</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04507848168367248</v>
+      </c>
+      <c r="E52">
+        <v>-0.02090787162293094</v>
+      </c>
+      <c r="F52">
+        <v>-0.04152522859732155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.04171158368312323</v>
+        <v>0.1718976089053409</v>
       </c>
       <c r="C53">
-        <v>0.1726801030957836</v>
+        <v>-0.01864123829893611</v>
       </c>
       <c r="D53">
-        <v>0.01593642899852704</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.007080696896788394</v>
+      </c>
+      <c r="E53">
+        <v>-0.03229420793490821</v>
+      </c>
+      <c r="F53">
+        <v>-0.07241389630317514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01746386184002398</v>
+        <v>0.02282232240170992</v>
       </c>
       <c r="C54">
-        <v>0.03622955554752008</v>
+        <v>-0.01241092811780014</v>
       </c>
       <c r="D54">
-        <v>-0.001295969661111445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03359504387995031</v>
+      </c>
+      <c r="E54">
+        <v>-0.01808000234834099</v>
+      </c>
+      <c r="F54">
+        <v>0.003135629044127797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02922164739941609</v>
+        <v>0.1136949632156364</v>
       </c>
       <c r="C55">
-        <v>0.08830534842535068</v>
+        <v>-0.0162974567936611</v>
       </c>
       <c r="D55">
-        <v>-0.001657606812458879</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01025775192990746</v>
+      </c>
+      <c r="E55">
+        <v>-0.02871247846759597</v>
+      </c>
+      <c r="F55">
+        <v>-0.04691556084805894</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03849288306067909</v>
+        <v>0.1765721167690615</v>
       </c>
       <c r="C56">
-        <v>0.1572514970566951</v>
+        <v>-0.01613426238136084</v>
       </c>
       <c r="D56">
-        <v>0.01387338077388479</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001442442632202536</v>
+      </c>
+      <c r="E56">
+        <v>-0.0361689426752044</v>
+      </c>
+      <c r="F56">
+        <v>-0.05084327331697566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0142276791973988</v>
+        <v>0.04617556228909484</v>
       </c>
       <c r="C58">
-        <v>0.04815539192847292</v>
+        <v>-0.0003239964041969624</v>
       </c>
       <c r="D58">
-        <v>-0.01744070266799482</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06750738993266348</v>
+      </c>
+      <c r="E58">
+        <v>-0.02690585121421732</v>
+      </c>
+      <c r="F58">
+        <v>0.03624002986727508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.02261092780614232</v>
+        <v>0.1684126346401089</v>
       </c>
       <c r="C59">
-        <v>0.1045559031555001</v>
+        <v>-0.02087722353992565</v>
       </c>
       <c r="D59">
-        <v>0.216858328902385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.218198135482177</v>
+      </c>
+      <c r="E59">
+        <v>0.04616166685055896</v>
+      </c>
+      <c r="F59">
+        <v>0.03457720413575875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.03894222472461371</v>
+        <v>0.2314099641636642</v>
       </c>
       <c r="C60">
-        <v>0.271130737129722</v>
+        <v>0.003004403736592671</v>
       </c>
       <c r="D60">
-        <v>-0.001680530090970019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04265207940627423</v>
+      </c>
+      <c r="E60">
+        <v>-0.01152996824793893</v>
+      </c>
+      <c r="F60">
+        <v>0.006803584925658719</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03216517739982622</v>
+        <v>0.08171541420413996</v>
       </c>
       <c r="C61">
-        <v>0.1162687962835392</v>
+        <v>-0.01148443121012198</v>
       </c>
       <c r="D61">
-        <v>-0.03927755892185598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1166843301184778</v>
+      </c>
+      <c r="E61">
+        <v>-0.03858509446848347</v>
+      </c>
+      <c r="F61">
+        <v>-0.01150889454670357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.04135658666557406</v>
+        <v>0.1704104438156538</v>
       </c>
       <c r="C62">
-        <v>0.159608617011595</v>
+        <v>-0.01958292906963514</v>
       </c>
       <c r="D62">
-        <v>0.00803895393611196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007072473728912058</v>
+      </c>
+      <c r="E62">
+        <v>-0.03567644060597933</v>
+      </c>
+      <c r="F62">
+        <v>-0.03299601946556147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01260945841564741</v>
+        <v>0.04602784162159706</v>
       </c>
       <c r="C63">
-        <v>0.04947466903514353</v>
+        <v>-0.001874761849828285</v>
       </c>
       <c r="D63">
-        <v>-0.02295400084830803</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0579512093749621</v>
+      </c>
+      <c r="E63">
+        <v>-0.02124430017873203</v>
+      </c>
+      <c r="F63">
+        <v>-0.005423782736378341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02810266232498262</v>
+        <v>0.110499542621242</v>
       </c>
       <c r="C64">
-        <v>0.09496377008080663</v>
+        <v>-0.01095729506641807</v>
       </c>
       <c r="D64">
-        <v>0.0026880452379635</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04336438337328604</v>
+      </c>
+      <c r="E64">
+        <v>-0.0246996070495346</v>
+      </c>
+      <c r="F64">
+        <v>-0.02613512457045847</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04844410587553621</v>
+        <v>0.1475970018868787</v>
       </c>
       <c r="C65">
-        <v>0.1142195911616263</v>
+        <v>-0.03257558462747807</v>
       </c>
       <c r="D65">
-        <v>0.03988830324458954</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04044391711739433</v>
+      </c>
+      <c r="E65">
+        <v>-0.004997142923677569</v>
+      </c>
+      <c r="F65">
+        <v>-0.03976843926211179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04583431685780107</v>
+        <v>0.124498546162527</v>
       </c>
       <c r="C66">
-        <v>0.1839391727333007</v>
+        <v>-0.01355576163332278</v>
       </c>
       <c r="D66">
-        <v>-0.06572027631458825</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1426145666863987</v>
+      </c>
+      <c r="E66">
+        <v>-0.06631304291259431</v>
+      </c>
+      <c r="F66">
+        <v>-0.03141575083743025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01675944920033544</v>
+        <v>0.0606738046606213</v>
       </c>
       <c r="C67">
-        <v>0.07529632399761325</v>
+        <v>-0.003137643256056814</v>
       </c>
       <c r="D67">
-        <v>-0.005131776651285256</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05543663782692985</v>
+      </c>
+      <c r="E67">
+        <v>-0.01752614509380233</v>
+      </c>
+      <c r="F67">
+        <v>0.03403883424994732</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.0223607094845294</v>
+        <v>0.1167406854177313</v>
       </c>
       <c r="C68">
-        <v>0.03263597715261415</v>
+        <v>-0.0312935054834767</v>
       </c>
       <c r="D68">
-        <v>0.1815325910721588</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2606587609467128</v>
+      </c>
+      <c r="E68">
+        <v>0.08650673427483783</v>
+      </c>
+      <c r="F68">
+        <v>-0.005821781625633115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.008896470048592099</v>
+        <v>0.03990499305297113</v>
       </c>
       <c r="C69">
-        <v>0.03837667125588802</v>
+        <v>-0.001355313487373035</v>
       </c>
       <c r="D69">
-        <v>0.01781735935090494</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.006961986418067897</v>
+      </c>
+      <c r="E69">
+        <v>-0.02269036395057982</v>
+      </c>
+      <c r="F69">
+        <v>0.0006430560632711709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.01612703915126978</v>
+        <v>0.06579133773321998</v>
       </c>
       <c r="C70">
-        <v>0.007973805641408703</v>
+        <v>0.02794273299901224</v>
       </c>
       <c r="D70">
-        <v>0.02833043128014947</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02471805009597703</v>
+      </c>
+      <c r="E70">
+        <v>0.03941301122585181</v>
+      </c>
+      <c r="F70">
+        <v>0.1850108750289308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.0275083282825305</v>
+        <v>0.1367854184796419</v>
       </c>
       <c r="C71">
-        <v>0.04511232735503758</v>
+        <v>-0.03562217653966268</v>
       </c>
       <c r="D71">
-        <v>0.1974208514115303</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2729723368738589</v>
+      </c>
+      <c r="E71">
+        <v>0.09596082580588927</v>
+      </c>
+      <c r="F71">
+        <v>-0.01245010335643936</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.04391949175636062</v>
+        <v>0.1420979263093374</v>
       </c>
       <c r="C72">
-        <v>0.1245814269087745</v>
+        <v>-0.02594379392521511</v>
       </c>
       <c r="D72">
-        <v>0.0367239343646543</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001213081873298373</v>
+      </c>
+      <c r="E72">
+        <v>-0.03845135214455061</v>
+      </c>
+      <c r="F72">
+        <v>-0.0332847035793573</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.04576750660588783</v>
+        <v>0.2011488422677225</v>
       </c>
       <c r="C73">
-        <v>0.2115342294817207</v>
+        <v>-0.01221854009706608</v>
       </c>
       <c r="D73">
-        <v>0.05095123035508155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0171117186397848</v>
+      </c>
+      <c r="E73">
+        <v>-0.06352577804998524</v>
+      </c>
+      <c r="F73">
+        <v>-0.03801367565705249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02718787927966171</v>
+        <v>0.09432655961637594</v>
       </c>
       <c r="C74">
-        <v>0.1146529957179582</v>
+        <v>-0.01311970270709785</v>
       </c>
       <c r="D74">
-        <v>0.02495644156867404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01716500849434876</v>
+      </c>
+      <c r="E74">
+        <v>-0.04398891482454735</v>
+      </c>
+      <c r="F74">
+        <v>-0.05644841717954208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04864190899158111</v>
+        <v>0.1278746380695976</v>
       </c>
       <c r="C75">
-        <v>0.1333014791475297</v>
+        <v>-0.02761230832664526</v>
       </c>
       <c r="D75">
-        <v>0.02184030801921343</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03050744647233756</v>
+      </c>
+      <c r="E75">
+        <v>-0.05854614494603565</v>
+      </c>
+      <c r="F75">
+        <v>-0.0183314305674251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0001595325412285056</v>
+        <v>0.0003237938385161312</v>
       </c>
       <c r="C76">
-        <v>0.00102410159077166</v>
+        <v>-0.0001101643301315731</v>
       </c>
       <c r="D76">
-        <v>0.001042685871290075</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0004098380567477938</v>
+      </c>
+      <c r="E76">
+        <v>8.025167624338602e-05</v>
+      </c>
+      <c r="F76">
+        <v>-0.0004363062294530691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02797487695688191</v>
+        <v>0.08672531734409</v>
       </c>
       <c r="C77">
-        <v>0.09992503123622078</v>
+        <v>-0.007976522478992533</v>
       </c>
       <c r="D77">
-        <v>-0.05877601345088644</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1133247732009326</v>
+      </c>
+      <c r="E77">
+        <v>-0.03909064562984928</v>
+      </c>
+      <c r="F77">
+        <v>-0.03283832114230942</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.06387071164922176</v>
+        <v>0.100306741607151</v>
       </c>
       <c r="C78">
-        <v>0.1421850359042171</v>
+        <v>-0.0391861507219355</v>
       </c>
       <c r="D78">
-        <v>0.01177615531771511</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1164465400201547</v>
+      </c>
+      <c r="E78">
+        <v>-0.07390697331783926</v>
+      </c>
+      <c r="F78">
+        <v>-0.04465757869950505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.04380366902341326</v>
+        <v>0.1644195664697814</v>
       </c>
       <c r="C79">
-        <v>0.1425111413541758</v>
+        <v>-0.02216777785769806</v>
       </c>
       <c r="D79">
-        <v>0.02622258730983856</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01518278648416296</v>
+      </c>
+      <c r="E79">
+        <v>-0.04636140815468676</v>
+      </c>
+      <c r="F79">
+        <v>-0.01074109723332129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.01324368606919998</v>
+        <v>0.08274432125807862</v>
       </c>
       <c r="C80">
-        <v>0.0867242162399377</v>
+        <v>0.0008936431239782775</v>
       </c>
       <c r="D80">
-        <v>2.474966761766096e-05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05597607885599865</v>
+      </c>
+      <c r="E80">
+        <v>-0.03656431575442887</v>
+      </c>
+      <c r="F80">
+        <v>0.02359782565282357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04932950631145398</v>
+        <v>0.1213014734962662</v>
       </c>
       <c r="C81">
-        <v>0.132440173462232</v>
+        <v>-0.03153405477269142</v>
       </c>
       <c r="D81">
-        <v>0.009656270605675409</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01565429218794167</v>
+      </c>
+      <c r="E81">
+        <v>-0.0576527937489275</v>
+      </c>
+      <c r="F81">
+        <v>-0.01629516779623526</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04554545148235599</v>
+        <v>0.1658469927087309</v>
       </c>
       <c r="C82">
-        <v>0.1624623484405416</v>
+        <v>-0.02397445528049697</v>
       </c>
       <c r="D82">
-        <v>0.009544977797375381</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004406196423946427</v>
+      </c>
+      <c r="E82">
+        <v>-0.02886844115314492</v>
+      </c>
+      <c r="F82">
+        <v>-0.08008242359186316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01882396852560555</v>
+        <v>0.0598668739210356</v>
       </c>
       <c r="C83">
-        <v>0.06678703227860538</v>
+        <v>-0.002776495968626211</v>
       </c>
       <c r="D83">
-        <v>-0.0125413822560383</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0512428419021924</v>
+      </c>
+      <c r="E83">
+        <v>-0.005206821927435333</v>
+      </c>
+      <c r="F83">
+        <v>0.03150362845277601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02790561606992839</v>
+        <v>0.05874704267888873</v>
       </c>
       <c r="C84">
-        <v>0.0750145646771849</v>
+        <v>-0.01091820734969395</v>
       </c>
       <c r="D84">
-        <v>-0.03650836867765642</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06388927933029805</v>
+      </c>
+      <c r="E84">
+        <v>-0.006442629810484787</v>
+      </c>
+      <c r="F84">
+        <v>-0.004101221516349558</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.04523978338509326</v>
+        <v>0.1363136638252982</v>
       </c>
       <c r="C85">
-        <v>0.1199290237067662</v>
+        <v>-0.02744456832231353</v>
       </c>
       <c r="D85">
-        <v>0.01355960252219737</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0109422224650728</v>
+      </c>
+      <c r="E85">
+        <v>-0.03873636258997881</v>
+      </c>
+      <c r="F85">
+        <v>-0.0449641921826609</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01479107440650059</v>
+        <v>0.09420266257113821</v>
       </c>
       <c r="C86">
-        <v>0.09050838106360723</v>
+        <v>0.006468235674115329</v>
       </c>
       <c r="D86">
-        <v>0.1524860610361375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04136552884339369</v>
+      </c>
+      <c r="E86">
+        <v>-0.2122275213592027</v>
+      </c>
+      <c r="F86">
+        <v>0.9083622941420972</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04406546151573431</v>
+        <v>0.09695734798400554</v>
       </c>
       <c r="C87">
-        <v>0.1091731442166708</v>
+        <v>-0.01947357080513231</v>
       </c>
       <c r="D87">
-        <v>-0.06259614204098697</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09603761886062183</v>
+      </c>
+      <c r="E87">
+        <v>0.05108070264341237</v>
+      </c>
+      <c r="F87">
+        <v>-0.05397252781399101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01564322105218035</v>
+        <v>0.06062843764236947</v>
       </c>
       <c r="C88">
-        <v>0.0594697478938836</v>
+        <v>-0.002105913392836122</v>
       </c>
       <c r="D88">
-        <v>-0.006323956779722618</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04963166069144674</v>
+      </c>
+      <c r="E88">
+        <v>-0.02466429769234407</v>
+      </c>
+      <c r="F88">
+        <v>-0.01196069695052269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.01030091711921492</v>
+        <v>0.1339679555243758</v>
       </c>
       <c r="C89">
-        <v>0.06236277747404995</v>
+        <v>-0.01290683328004659</v>
       </c>
       <c r="D89">
-        <v>0.2288924486764685</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.250332213926087</v>
+      </c>
+      <c r="E89">
+        <v>0.09114802386051053</v>
+      </c>
+      <c r="F89">
+        <v>0.007934282107632961</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02647033037097762</v>
+        <v>0.1511122609254295</v>
       </c>
       <c r="C90">
-        <v>0.05078441700912743</v>
+        <v>-0.03186647541229004</v>
       </c>
       <c r="D90">
-        <v>0.2010238498526523</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2697373466193091</v>
+      </c>
+      <c r="E90">
+        <v>0.1126351523100328</v>
+      </c>
+      <c r="F90">
+        <v>0.00150982269543782</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.03007399538979802</v>
+        <v>0.1204006627626879</v>
       </c>
       <c r="C91">
-        <v>0.09978851294518218</v>
+        <v>-0.01869960063778369</v>
       </c>
       <c r="D91">
-        <v>0.02410404683345183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01278321236279218</v>
+      </c>
+      <c r="E91">
+        <v>-0.05663011401063995</v>
+      </c>
+      <c r="F91">
+        <v>0.002858044829488651</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.01456310000072506</v>
+        <v>0.1477960459403349</v>
       </c>
       <c r="C92">
-        <v>0.06643815571438931</v>
+        <v>-0.0234903710147623</v>
       </c>
       <c r="D92">
-        <v>0.2312866515878757</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.291967657864663</v>
+      </c>
+      <c r="E92">
+        <v>0.1013225304830637</v>
+      </c>
+      <c r="F92">
+        <v>0.01299796131256295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.02284265738658748</v>
+        <v>0.1523760662271525</v>
       </c>
       <c r="C93">
-        <v>0.05935595721175319</v>
+        <v>-0.02766218675950705</v>
       </c>
       <c r="D93">
-        <v>0.2229638260300177</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2689446188164882</v>
+      </c>
+      <c r="E93">
+        <v>0.07762426006796742</v>
+      </c>
+      <c r="F93">
+        <v>-0.003066627682944965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04609857026775482</v>
+        <v>0.1303233386536776</v>
       </c>
       <c r="C94">
-        <v>0.1442219931591933</v>
+        <v>-0.02440810454593315</v>
       </c>
       <c r="D94">
-        <v>0.001492962974537535</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04332345386520209</v>
+      </c>
+      <c r="E94">
+        <v>-0.05827925733585</v>
+      </c>
+      <c r="F94">
+        <v>-0.03575888388131702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.03060927839232363</v>
+        <v>0.1274421401602318</v>
       </c>
       <c r="C95">
-        <v>0.1378567362359744</v>
+        <v>-0.003590328816402262</v>
       </c>
       <c r="D95">
-        <v>-0.03167320877933011</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09097271886608028</v>
+      </c>
+      <c r="E95">
+        <v>-0.0458698066488183</v>
+      </c>
+      <c r="F95">
+        <v>0.007178679529168873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.964086398196792</v>
+        <v>0.1049616100058643</v>
       </c>
       <c r="C96">
-        <v>0.2478031196246299</v>
+        <v>0.9876774714561026</v>
       </c>
       <c r="D96">
-        <v>0.03272591374064641</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04759148817778587</v>
+      </c>
+      <c r="E96">
+        <v>-0.05546058424853215</v>
+      </c>
+      <c r="F96">
+        <v>-0.04228797560235557</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.01848723590546538</v>
+        <v>0.1929354923178254</v>
       </c>
       <c r="C97">
-        <v>0.1692926438715156</v>
+        <v>0.007616933650599189</v>
       </c>
       <c r="D97">
-        <v>0.1045481150850339</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0182469450834022</v>
+      </c>
+      <c r="E97">
+        <v>-0.01783406575145626</v>
+      </c>
+      <c r="F97">
+        <v>0.09077636827196287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.03295998318911508</v>
+        <v>0.2045616270613825</v>
       </c>
       <c r="C98">
-        <v>0.1970188244730965</v>
+        <v>-0.006913880111253373</v>
       </c>
       <c r="D98">
-        <v>0.005927793049092223</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01407346283508901</v>
+      </c>
+      <c r="E98">
+        <v>0.08355616846254012</v>
+      </c>
+      <c r="F98">
+        <v>0.09433385886041873</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.006720029712170031</v>
+        <v>0.05568623810110479</v>
       </c>
       <c r="C99">
-        <v>0.06334037867354167</v>
+        <v>0.004922651657543493</v>
       </c>
       <c r="D99">
-        <v>0.002697091487898931</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03955945929416647</v>
+      </c>
+      <c r="E99">
+        <v>-0.0229881719870067</v>
+      </c>
+      <c r="F99">
+        <v>-0.001299169713375505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.001146401819261436</v>
+        <v>0.1254085894009342</v>
       </c>
       <c r="C100">
-        <v>0.1543065687312268</v>
+        <v>0.05464456835455043</v>
       </c>
       <c r="D100">
-        <v>-0.727070882273127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3439479494797547</v>
+      </c>
+      <c r="E100">
+        <v>0.8893723850444407</v>
+      </c>
+      <c r="F100">
+        <v>0.1406572626905922</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01420822673560452</v>
+        <v>0.02779514109323674</v>
       </c>
       <c r="C101">
-        <v>0.02784021077813694</v>
+        <v>-0.008165472206534539</v>
       </c>
       <c r="D101">
-        <v>0.003872004795498982</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03142997223249983</v>
+      </c>
+      <c r="E101">
+        <v>-0.01054230883436872</v>
+      </c>
+      <c r="F101">
+        <v>0.01270555485433376</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
